--- a/results/all_dynaq.xlsx
+++ b/results/all_dynaq.xlsx
@@ -41,9 +41,6 @@
     <t>a=0.01</t>
   </si>
   <si>
-    <t>a=0.9</t>
-  </si>
-  <si>
     <t>a=0.001</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>a=0.0001</t>
+  </si>
+  <si>
+    <t>a=0.05</t>
   </si>
   <si>
     <t>a=0.0005</t>
@@ -2407,11 +2407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="725159360"/>
-        <c:axId val="725143152"/>
+        <c:axId val="-1089130512"/>
+        <c:axId val="-1068472112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="725159360"/>
+        <c:axId val="-1089130512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -2525,12 +2525,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="725143152"/>
+        <c:crossAx val="-1068472112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="725143152"/>
+        <c:axId val="-1068472112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2644,7 +2644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="725159360"/>
+        <c:crossAx val="-1089130512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3136,154 +3136,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.12</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.72</c:v>
+                  <c:v>0.14</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0.66</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>0.14</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="43">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.46</c:v>
-                </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.0</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.36</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.36</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3611,154 +3611,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.12</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0.08</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0.16</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.06</c:v>
-                </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1</c:v>
+                  <c:v>0.58</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.12</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.16</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4086,154 +4086,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="23">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>0.32</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="43">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>0.12</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="45">
                   <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.28</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.56</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.12</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.14</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.44</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4244,7 +4244,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>a=0.0005</c:v>
+            <c:v>a=0.05</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4561,154 +4561,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="23">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0.08</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="28">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0.18</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0.04</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>0.26</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.04</c:v>
-                </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.14</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.18</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>0.26</c:v>
                 </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.14</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>0.08</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.02</c:v>
-                </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.12</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.14</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.12</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4719,7 +4719,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>a=0.9</c:v>
+            <c:v>a=0.0005</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4745,6 +4745,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$101</c:f>
@@ -5021,6 +5035,156 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.06</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5345,11 +5509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="695503936"/>
-        <c:axId val="695506064"/>
+        <c:axId val="-1089075520"/>
+        <c:axId val="-1089071760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="695503936"/>
+        <c:axId val="-1089075520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -5463,12 +5627,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="695506064"/>
+        <c:crossAx val="-1089071760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="695506064"/>
+        <c:axId val="-1089071760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -5582,7 +5746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="695503936"/>
+        <c:crossAx val="-1089075520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8122,11 +8286,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="724968480"/>
-        <c:axId val="724972112"/>
+        <c:axId val="-1111805264"/>
+        <c:axId val="-1111800992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="724968480"/>
+        <c:axId val="-1111805264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -8240,12 +8404,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="724972112"/>
+        <c:crossAx val="-1111800992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="724972112"/>
+        <c:axId val="-1111800992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -8359,7 +8523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="724968480"/>
+        <c:crossAx val="-1111805264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8494,7 +8658,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10599,11 +10762,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="725394608"/>
-        <c:axId val="771947008"/>
+        <c:axId val="-1089017840"/>
+        <c:axId val="-1089013568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="725394608"/>
+        <c:axId val="-1089017840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -10650,7 +10813,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10717,12 +10879,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="771947008"/>
+        <c:crossAx val="-1089013568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="771947008"/>
+        <c:axId val="-1089013568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -10769,7 +10931,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10836,7 +10997,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="725394608"/>
+        <c:crossAx val="-1089017840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10850,7 +11011,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13537,8 +13697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R51"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13554,55 +13714,55 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
       </c>
       <c r="P1" t="s">
         <v>3</v>
       </c>
       <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI1" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AV1" t="s">
         <v>9</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>10</v>
       </c>
-      <c r="AW1" t="s">
-        <v>11</v>
-      </c>
       <c r="AX1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
@@ -13623,15 +13783,18 @@
         <v>0.02</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Q2">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="S2">
+        <v>0.04</v>
+      </c>
+      <c r="T2">
         <v>0.02</v>
       </c>
       <c r="AF2">
@@ -13677,15 +13840,18 @@
         <v>0.16</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="S3">
+        <v>0.08</v>
+      </c>
+      <c r="T3">
         <v>0</v>
       </c>
       <c r="AF3">
@@ -13731,16 +13897,19 @@
         <v>0.08</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.06</v>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0.04</v>
       </c>
       <c r="AF4">
         <v>0.16</v>
@@ -13785,16 +13954,19 @@
         <v>0.06</v>
       </c>
       <c r="P5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="R5">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="S5">
-        <v>0.06</v>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0.32</v>
@@ -13839,16 +14011,19 @@
         <v>0.04</v>
       </c>
       <c r="P6">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R6">
         <v>0.04</v>
       </c>
       <c r="S6">
         <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0.04</v>
       </c>
       <c r="AF6">
         <v>0.54</v>
@@ -13893,16 +14068,19 @@
         <v>0.04</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Q7">
-        <v>0.04</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R7">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.1</v>
+        <v>0.16</v>
+      </c>
+      <c r="T7">
+        <v>0.12</v>
       </c>
       <c r="AF7">
         <v>0.3</v>
@@ -13947,16 +14125,19 @@
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0.1</v>
+      </c>
+      <c r="Q8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>0.12</v>
       </c>
-      <c r="Q8">
-        <v>0.06</v>
-      </c>
-      <c r="R8">
-        <v>0.02</v>
-      </c>
-      <c r="S8">
-        <v>0.1</v>
+      <c r="T8">
+        <v>0.12</v>
       </c>
       <c r="AF8">
         <v>0.08</v>
@@ -14001,16 +14182,19 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="Q9">
+        <v>0.2</v>
+      </c>
+      <c r="R9">
         <v>0.06</v>
       </c>
-      <c r="R9">
-        <v>0.32</v>
-      </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="T9">
+        <v>0.08</v>
       </c>
       <c r="AF9">
         <v>0.16</v>
@@ -14055,15 +14239,18 @@
         <v>0.2</v>
       </c>
       <c r="P10">
-        <v>0.28000000000000003</v>
+        <v>0.08</v>
       </c>
       <c r="Q10">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="S10">
+        <v>0.16</v>
+      </c>
+      <c r="T10">
         <v>0</v>
       </c>
       <c r="AF10">
@@ -14109,16 +14296,19 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.72</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q11">
+        <v>0.18</v>
+      </c>
+      <c r="R11">
+        <v>0.04</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>0.08</v>
-      </c>
-      <c r="R11">
-        <v>0.12</v>
-      </c>
-      <c r="S11">
-        <v>0.06</v>
       </c>
       <c r="AF11">
         <v>0.04</v>
@@ -14166,13 +14356,16 @@
         <v>0.12</v>
       </c>
       <c r="Q12">
+        <v>0.16</v>
+      </c>
+      <c r="R12">
+        <v>0.06</v>
+      </c>
+      <c r="S12">
         <v>0.12</v>
       </c>
-      <c r="R12">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="S12">
-        <v>0.08</v>
+      <c r="T12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0.14000000000000001</v>
@@ -14217,16 +14410,19 @@
         <v>0.18</v>
       </c>
       <c r="P13">
-        <v>0.66</v>
+        <v>0.24</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="R13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>0.12</v>
+        <v>0.18</v>
+      </c>
+      <c r="T13">
+        <v>0.08</v>
       </c>
       <c r="AF13">
         <v>0.02</v>
@@ -14271,16 +14467,19 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.02</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="R14">
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="S14">
-        <v>0.18</v>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0.1</v>
       </c>
       <c r="AF14">
         <v>0.08</v>
@@ -14325,16 +14524,19 @@
         <v>0</v>
       </c>
       <c r="P15">
+        <v>0.42</v>
+      </c>
+      <c r="Q15">
+        <v>0.4</v>
+      </c>
+      <c r="R15">
+        <v>0.08</v>
+      </c>
+      <c r="S15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0.12</v>
+      <c r="T15">
+        <v>0.06</v>
       </c>
       <c r="AF15">
         <v>0.16</v>
@@ -14382,13 +14584,16 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>0.12</v>
+        <v>0.5</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0.52</v>
@@ -14433,16 +14638,19 @@
         <v>0.08</v>
       </c>
       <c r="P17">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="R17">
-        <v>0.32</v>
+        <v>0.06</v>
       </c>
       <c r="S17">
-        <v>0.08</v>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0.18</v>
@@ -14487,16 +14695,19 @@
         <v>0.08</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Q18">
-        <v>0.04</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="R18">
-        <v>0.38</v>
+        <v>0.12</v>
       </c>
       <c r="S18">
-        <v>0.18</v>
+        <v>0.08</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0.2</v>
@@ -14541,16 +14752,19 @@
         <v>0.08</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q19">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="R19">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>0.06</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T19">
+        <v>0.22</v>
       </c>
       <c r="AF19">
         <v>0.1</v>
@@ -14595,16 +14809,19 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="P20">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>0.18</v>
+        <v>0.32</v>
+      </c>
+      <c r="T20">
+        <v>0.08</v>
       </c>
       <c r="AF20">
         <v>0.06</v>
@@ -14649,16 +14866,19 @@
         <v>0.06</v>
       </c>
       <c r="P21">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="Q21">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="R21">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>0.08</v>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0.08</v>
@@ -14703,16 +14923,19 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.32</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Q22">
-        <v>0.04</v>
+        <v>0.3</v>
       </c>
       <c r="R22">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="S22">
-        <v>0.04</v>
+        <v>0.24</v>
+      </c>
+      <c r="T22">
+        <v>0.06</v>
       </c>
       <c r="AF22">
         <v>0.12</v>
@@ -14757,16 +14980,19 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.04</v>
+        <v>0.46</v>
       </c>
       <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <v>0.14000000000000001</v>
-      </c>
-      <c r="S23">
-        <v>0.12</v>
       </c>
       <c r="AF23">
         <v>0.02</v>
@@ -14811,16 +15037,19 @@
         <v>0.18</v>
       </c>
       <c r="P24">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.08</v>
+        <v>0.54</v>
       </c>
       <c r="R24">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="S24">
-        <v>0.08</v>
+        <v>0.02</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0.6</v>
@@ -14865,16 +15094,19 @@
         <v>0.12</v>
       </c>
       <c r="P25">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="Q25">
-        <v>0.14000000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="R25">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>0.1</v>
+        <v>0.36</v>
+      </c>
+      <c r="T25">
+        <v>0.04</v>
       </c>
       <c r="AF25">
         <v>0.04</v>
@@ -14919,16 +15151,19 @@
         <v>0.04</v>
       </c>
       <c r="P26">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="R26">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
       <c r="S26">
-        <v>0.22</v>
+        <v>0.04</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0.06</v>
@@ -14973,16 +15208,19 @@
         <v>0.2</v>
       </c>
       <c r="P27">
-        <v>0.52</v>
+        <v>0.06</v>
       </c>
       <c r="Q27">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>0.14000000000000001</v>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T27">
+        <v>0.08</v>
       </c>
       <c r="AF27">
         <v>0.12</v>
@@ -15027,16 +15265,19 @@
         <v>0.1</v>
       </c>
       <c r="P28">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="Q28">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="R28">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>0.14000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0.54</v>
@@ -15078,16 +15319,19 @@
         <v>0.1</v>
       </c>
       <c r="P29">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="R29">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="S29">
-        <v>0.04</v>
+        <v>0.08</v>
+      </c>
+      <c r="T29">
+        <v>0.18</v>
       </c>
       <c r="AF29">
         <v>0.08</v>
@@ -15129,16 +15373,19 @@
         <v>0.12</v>
       </c>
       <c r="P30">
-        <v>0.1</v>
+        <v>0.66</v>
       </c>
       <c r="Q30">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="S30">
-        <v>0.1</v>
+        <v>0.02</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0.02</v>
@@ -15183,13 +15430,16 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>0.06</v>
+        <v>0.38</v>
       </c>
       <c r="R31">
+        <v>0.08</v>
+      </c>
+      <c r="S31">
         <v>0.2</v>
       </c>
-      <c r="S31">
-        <v>0.32</v>
+      <c r="T31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0.04</v>
@@ -15231,16 +15481,19 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0.4</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Q32">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="R32">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="S32">
-        <v>0.04</v>
+        <v>0.08</v>
+      </c>
+      <c r="T32">
+        <v>0.08</v>
       </c>
       <c r="AF32">
         <v>0.06</v>
@@ -15285,13 +15538,16 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0.1</v>
+        <v>0.48</v>
       </c>
       <c r="R33">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S33">
-        <v>0.04</v>
+        <v>0.24</v>
+      </c>
+      <c r="T33">
+        <v>0.06</v>
       </c>
       <c r="AF33">
         <v>0.06</v>
@@ -15333,16 +15589,19 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="P34">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>0.12</v>
+        <v>0.42</v>
       </c>
       <c r="R34">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="S34">
-        <v>0.04</v>
+        <v>0.18</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0.14000000000000001</v>
@@ -15384,16 +15643,19 @@
         <v>0.02</v>
       </c>
       <c r="P35">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="Q35">
-        <v>0.04</v>
+        <v>0.32</v>
       </c>
       <c r="R35">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>0.06</v>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0.06</v>
@@ -15435,16 +15697,19 @@
         <v>0.18</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Q36">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="R36">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="S36">
-        <v>0.26</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T36">
+        <v>0.1</v>
       </c>
       <c r="AF36">
         <v>0.04</v>
@@ -15486,16 +15751,19 @@
         <v>0.04</v>
       </c>
       <c r="P37">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="Q37">
+        <v>0.42</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>0.04</v>
       </c>
-      <c r="R37">
+      <c r="T37">
         <v>0.18</v>
-      </c>
-      <c r="S37">
-        <v>0.06</v>
       </c>
       <c r="AF37">
         <v>0.08</v>
@@ -15537,16 +15805,19 @@
         <v>0.24</v>
       </c>
       <c r="P38">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>0.14000000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="R38">
-        <v>0.28000000000000003</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S38">
-        <v>0.04</v>
+        <v>0.26</v>
+      </c>
+      <c r="T38">
+        <v>0.1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -15588,16 +15859,19 @@
         <v>0.16</v>
       </c>
       <c r="P39">
-        <v>0.04</v>
+        <v>0.3</v>
       </c>
       <c r="Q39">
-        <v>0.04</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="R39">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="S39">
-        <v>0.14000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0.2</v>
       </c>
       <c r="AF39">
         <v>0.04</v>
@@ -15639,16 +15913,19 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="R40">
-        <v>0.56000000000000005</v>
+        <v>0.1</v>
       </c>
       <c r="S40">
         <v>0.06</v>
+      </c>
+      <c r="T40">
+        <v>0.1</v>
       </c>
       <c r="AF40">
         <v>0.14000000000000001</v>
@@ -15690,16 +15967,19 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="P41">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="Q41">
-        <v>0.04</v>
+        <v>0.3</v>
       </c>
       <c r="R41">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
       <c r="S41">
-        <v>0.18</v>
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0.08</v>
       </c>
       <c r="AF41">
         <v>0.06</v>
@@ -15741,16 +16021,19 @@
         <v>0.12</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="Q42">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="R42">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="S42">
-        <v>0.26</v>
+        <v>0.44</v>
+      </c>
+      <c r="T42">
+        <v>0.14000000000000001</v>
       </c>
       <c r="AF42">
         <v>0.06</v>
@@ -15792,16 +16075,19 @@
         <v>0.06</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="Q43">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="S43">
-        <v>0.14000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0.04</v>
@@ -15843,16 +16129,19 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q44">
-        <v>0.04</v>
+        <v>0.46</v>
       </c>
       <c r="R44">
-        <v>0.8</v>
+        <v>0.32</v>
       </c>
       <c r="S44">
-        <v>0.08</v>
+        <v>0.26</v>
+      </c>
+      <c r="T44">
+        <v>0.1</v>
       </c>
       <c r="AF44">
         <v>0.2</v>
@@ -15894,16 +16183,19 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>0.46</v>
+        <v>0.1</v>
       </c>
       <c r="Q45">
-        <v>0.04</v>
+        <v>0.26</v>
       </c>
       <c r="R45">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>0.44</v>
+      </c>
+      <c r="T45">
+        <v>0.2</v>
       </c>
       <c r="AF45">
         <v>0.06</v>
@@ -15945,16 +16237,19 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="Q46">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="R46">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
       <c r="S46">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0.18</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -15999,13 +16294,16 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0.1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="R47">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="S47">
-        <v>0.02</v>
+        <v>0.08</v>
+      </c>
+      <c r="T47">
+        <v>0.12</v>
       </c>
       <c r="AF47">
         <v>0.16</v>
@@ -16047,16 +16345,19 @@
         <v>0.04</v>
       </c>
       <c r="P48">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="Q48">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="R48">
         <v>0.46</v>
       </c>
       <c r="S48">
-        <v>0.12</v>
+        <v>0.3</v>
+      </c>
+      <c r="T48">
+        <v>0.16</v>
       </c>
       <c r="AF48">
         <v>0.04</v>
@@ -16098,16 +16399,19 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>0.36</v>
+        <v>0.72</v>
       </c>
       <c r="Q49">
-        <v>0.1</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R49">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>0.14000000000000001</v>
+        <v>0.04</v>
+      </c>
+      <c r="T49">
+        <v>0.04</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -16152,13 +16456,16 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>0.12</v>
+        <v>0.04</v>
+      </c>
+      <c r="T50">
+        <v>0.08</v>
       </c>
       <c r="AF50">
         <v>0.18</v>
@@ -16200,16 +16507,19 @@
         <v>0</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="Q51">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
       <c r="S51">
-        <v>0.2</v>
+        <v>0.1</v>
+      </c>
+      <c r="T51">
+        <v>0.06</v>
       </c>
       <c r="AF51">
         <v>0.2</v>
